--- a/sprint1/Team4Report.xlsx
+++ b/sprint1/Team4Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workp\Documents\GitHub\CS555\sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D159C-963E-405D-8079-FB1B85E7D0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42551D58-FB0F-45FE-9445-1DADB4850E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1185" windowWidth="26160" windowHeight="14970" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2420,7 +2420,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2553,7 +2553,7 @@
         <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2570,7 +2570,7 @@
         <v>142</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <v>143</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11991,8 +11991,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12152,7 +12152,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="E6" s="12">
         <v>10</v>
@@ -12161,7 +12161,9 @@
         <v>35</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,7 +12177,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="E7" s="12">
         <v>10</v>
@@ -12184,7 +12186,9 @@
         <v>35</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>50</v>
+      </c>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16226,7 +16230,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19527,7 +19531,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
